--- a/planning244_s25.xlsx
+++ b/planning244_s25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinbelton/Repositories/M244-Spring25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4FDF24-2752-F247-B4B7-9280863EAFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A29278-041D-0447-B38C-72432EE49D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,10 +77,6 @@
     <t>R vs Python</t>
   </si>
   <si>
-    <t xml:space="preserve"> - &lt;a href="https://r4ds.hadley.nz/workflow-basics"&gt;R4DS Ch. 2&lt;/a&gt;  &lt;br&gt; - ISLP 2.3 &lt;br&gt; - &lt;a href="https://www.datacamp.com/blog/python-vs-r-for-data-science-whats-the-difference"&gt;Python vs R for Data Science&lt;/a&gt;  (you may have open this link in a new browser tab)
-&lt;br&gt; - Review R vs Python Slides (on Moodle)</t>
-  </si>
-  <si>
     <t xml:space="preserve">- Download and install R and Rstudio. See instructions in Section 1.1.1  &lt;a href="https://moderndive.netlify.app/1-getting-started.html#installing"&gt;here&lt;/a&gt; 
 &lt;br&gt; - Download and install the Anaconda Distribution (for Python). See instructions &lt;a href="https://docs.anaconda.com/anaconda/install/index.html"&gt;here&lt;/a&gt;  </t>
   </si>
@@ -413,6 +409,10 @@
   </si>
   <si>
     <t xml:space="preserve">- ISLP Ch. 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - &lt;a href="https://r4ds.hadley.nz/workflow-basics"&gt;R4DS Ch. 2&lt;/a&gt;  &lt;br&gt; - ISLP 2.3 &lt;br&gt; - &lt;a href="https://www.datacamp.com/blog/python-vs-r-for-data-science-whats-the-difference"&gt;Python vs R for Data Science&lt;/a&gt; 
+&lt;br&gt; - Review R vs Python Slides (on Moodle)</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -713,7 +713,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -751,10 +751,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -775,7 +775,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>10</v>
@@ -796,11 +796,11 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -818,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -842,7 +842,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -859,14 +859,14 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -882,10 +882,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="1"/>
@@ -903,16 +903,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -928,13 +928,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -951,13 +951,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -974,10 +974,10 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -995,16 +995,16 @@
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="G13" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1017,20 +1017,20 @@
         <v>45722</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="4">
         <f>B14+5</f>
@@ -1038,17 +1038,17 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="4">
         <f>B15+2</f>
@@ -1056,17 +1056,17 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="4">
         <f>B16+5</f>
@@ -1074,17 +1074,17 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="4">
         <f>B17+2</f>
@@ -1092,10 +1092,10 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1113,13 +1113,13 @@
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1132,19 +1132,19 @@
         <v>45743</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1160,13 +1160,13 @@
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="F21" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1180,19 +1180,19 @@
         <v>45750</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1208,16 +1208,16 @@
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1230,16 +1230,16 @@
         <v>45757</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1255,16 +1255,16 @@
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1277,16 +1277,16 @@
         <v>45764</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1299,17 +1299,17 @@
         <v>45769</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1322,13 +1322,13 @@
         <v>45771</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -1342,17 +1342,19 @@
         <v>45776</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="1"/>
       <c r="G29" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1365,17 +1367,15 @@
         <v>45778</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1388,13 +1388,13 @@
         <v>45783</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="3"/>
@@ -2503,197 +2503,197 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H15" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H18" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/planning244_s25.xlsx
+++ b/planning244_s25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinbelton/Repositories/M244-Spring25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A29278-041D-0447-B38C-72432EE49D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772282EC-530E-5845-ACA7-2ED05BC75807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="123">
   <si>
     <t>Date</t>
   </si>
@@ -77,19 +77,12 @@
     <t>R vs Python</t>
   </si>
   <si>
-    <t xml:space="preserve">- Download and install R and Rstudio. See instructions in Section 1.1.1  &lt;a href="https://moderndive.netlify.app/1-getting-started.html#installing"&gt;here&lt;/a&gt; 
-&lt;br&gt; - Download and install the Anaconda Distribution (for Python). See instructions &lt;a href="https://docs.anaconda.com/anaconda/install/index.html"&gt;here&lt;/a&gt;  </t>
-  </si>
-  <si>
     <t>Data Science in Python and R</t>
   </si>
   <si>
     <t xml:space="preserve"> - &lt;a href="https://rstudio.github.io/reticulate/articles/python_primer.html"&gt; Primer on Python for R Users &lt;/a&gt;    </t>
   </si>
   <si>
-    <t>- Yale GPA vs Majors Response Essay</t>
-  </si>
-  <si>
     <t>Manipulating Data in R and Python</t>
   </si>
   <si>
@@ -310,9 +303,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - Syllabus </t>
-  </si>
-  <si>
-    <t>- Course Info Sheet</t>
   </si>
   <si>
     <t>Visualization in R and Python</t>
@@ -413,6 +403,9 @@
   <si>
     <t xml:space="preserve"> - &lt;a href="https://r4ds.hadley.nz/workflow-basics"&gt;R4DS Ch. 2&lt;/a&gt;  &lt;br&gt; - ISLP 2.3 &lt;br&gt; - &lt;a href="https://www.datacamp.com/blog/python-vs-r-for-data-science-whats-the-difference"&gt;Python vs R for Data Science&lt;/a&gt; 
 &lt;br&gt; - Review R vs Python Slides (on Moodle)</t>
+  </si>
+  <si>
+    <t>- Course Info Sheet &lt;br&gt; - Download and install R, Rstudio, and Python</t>
   </si>
 </sst>
 </file>
@@ -696,7 +689,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -713,7 +706,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -751,10 +744,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -775,7 +768,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>10</v>
@@ -796,12 +789,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -818,14 +809,12 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -842,7 +831,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -859,14 +848,14 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -882,10 +871,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="1"/>
@@ -903,16 +892,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -928,13 +917,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -951,13 +940,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -974,10 +963,10 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -995,16 +984,16 @@
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1017,20 +1006,20 @@
         <v>45722</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B15" s="4">
         <f>B14+5</f>
@@ -1038,17 +1027,17 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B16" s="4">
         <f>B15+2</f>
@@ -1056,17 +1045,17 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B17" s="4">
         <f>B16+5</f>
@@ -1074,17 +1063,17 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B18" s="4">
         <f>B17+2</f>
@@ -1092,10 +1081,10 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1113,13 +1102,13 @@
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1132,19 +1121,19 @@
         <v>45743</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1160,13 +1149,13 @@
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1180,19 +1169,19 @@
         <v>45750</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1208,16 +1197,16 @@
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1230,16 +1219,16 @@
         <v>45757</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1255,16 +1244,16 @@
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1277,16 +1266,16 @@
         <v>45764</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1299,17 +1288,17 @@
         <v>45769</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1322,13 +1311,13 @@
         <v>45771</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -1342,19 +1331,19 @@
         <v>45776</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1367,13 +1356,13 @@
         <v>45778</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1388,13 +1377,13 @@
         <v>45783</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="3"/>
@@ -2503,197 +2492,197 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H15" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G16" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G17" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H18" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/planning244_s25.xlsx
+++ b/planning244_s25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinbelton/Repositories/M244-Spring25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772282EC-530E-5845-ACA7-2ED05BC75807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DDF817-B9E6-9E4C-8884-9D5F694331F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="122">
   <si>
     <t>Date</t>
   </si>
@@ -306,9 +306,6 @@
   </si>
   <si>
     <t>Visualization in R and Python</t>
-  </si>
-  <si>
-    <t>- Discussion Assignment and Response Essay</t>
   </si>
   <si>
     <t>Introduction to Git</t>
@@ -689,7 +686,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -706,7 +703,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -747,7 +744,7 @@
         <v>88</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -768,7 +765,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>10</v>
@@ -789,7 +786,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -854,9 +851,7 @@
         <v>89</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -874,10 +869,12 @@
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -895,14 +892,12 @@
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -923,7 +918,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -946,7 +941,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -1006,7 +1001,7 @@
         <v>45722</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
@@ -1019,7 +1014,7 @@
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="4">
         <f>B14+5</f>
@@ -1037,7 +1032,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="4">
         <f>B15+2</f>
@@ -1055,7 +1050,7 @@
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="4">
         <f>B16+5</f>
@@ -1073,7 +1068,7 @@
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="4">
         <f>B17+2</f>
@@ -1105,10 +1100,10 @@
         <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1121,7 +1116,7 @@
         <v>45743</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>28</v>
@@ -1130,7 +1125,7 @@
         <v>29</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>30</v>
@@ -1155,7 +1150,7 @@
         <v>34</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1169,7 +1164,7 @@
         <v>45750</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>33</v>
@@ -1178,10 +1173,10 @@
         <v>35</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1203,10 +1198,10 @@
         <v>37</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1219,16 +1214,16 @@
         <v>45757</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1250,10 +1245,10 @@
         <v>39</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1266,7 +1261,7 @@
         <v>45764</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>38</v>
@@ -1275,7 +1270,7 @@
         <v>40</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1288,17 +1283,17 @@
         <v>45769</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1311,7 +1306,7 @@
         <v>45771</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>41</v>
@@ -1331,7 +1326,7 @@
         <v>45776</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>23</v>
@@ -1343,7 +1338,7 @@
         <v>44</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1356,13 +1351,13 @@
         <v>45778</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1377,13 +1372,13 @@
         <v>45783</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="3"/>

--- a/planning244_s25.xlsx
+++ b/planning244_s25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinbelton/Repositories/M244-Spring25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DDF817-B9E6-9E4C-8884-9D5F694331F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3EC463-2D80-6B44-8A28-3BF7670EC49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="124">
   <si>
     <t>Date</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Regularization and Shrinkage: Ridge and LASSO</t>
   </si>
   <si>
-    <t>- Final Project Proposal and Data &lt;br&gt; - Data Ethics Reflection Essay</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;b&gt; SPRING &lt;b&gt; </t>
   </si>
   <si>
@@ -372,12 +369,6 @@
   </si>
   <si>
     <t>Week</t>
-  </si>
-  <si>
-    <t>- Homework 3</t>
-  </si>
-  <si>
-    <t>-Project EDA</t>
   </si>
   <si>
     <t>- Homework 4</t>
@@ -403,6 +394,21 @@
   </si>
   <si>
     <t>- Course Info Sheet &lt;br&gt; - Download and install R, Rstudio, and Python</t>
+  </si>
+  <si>
+    <t>- Project Proposal</t>
+  </si>
+  <si>
+    <t>- Project EDA</t>
+  </si>
+  <si>
+    <t>- Data Ethics Reflection Essay</t>
+  </si>
+  <si>
+    <t>-Data Visualization Essay</t>
+  </si>
+  <si>
+    <t>-Project Final Report</t>
   </si>
 </sst>
 </file>
@@ -686,7 +692,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -703,7 +709,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -741,10 +747,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -765,7 +771,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>10</v>
@@ -786,7 +792,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -848,7 +854,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -869,7 +875,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
@@ -892,10 +898,10 @@
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -918,9 +924,11 @@
         <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -941,7 +949,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -964,7 +972,9 @@
         <v>22</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -987,8 +997,8 @@
       <c r="F13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>26</v>
+      <c r="G13" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1001,7 +1011,7 @@
         <v>45722</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
@@ -1014,7 +1024,7 @@
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="4">
         <f>B14+5</f>
@@ -1022,17 +1032,17 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="4">
         <f>B15+2</f>
@@ -1040,17 +1050,17 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="4">
         <f>B16+5</f>
@@ -1058,17 +1068,17 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="4">
         <f>B17+2</f>
@@ -1076,10 +1086,10 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1100,10 +1110,10 @@
         <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1116,7 +1126,7 @@
         <v>45743</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>28</v>
@@ -1125,10 +1135,10 @@
         <v>29</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1144,13 +1154,13 @@
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F21" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1164,19 +1174,19 @@
         <v>45750</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1192,17 +1202,15 @@
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>113</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -1214,16 +1222,19 @@
         <v>45757</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>102</v>
+      <c r="G24" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1239,17 +1250,15 @@
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>114</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -1261,16 +1270,19 @@
         <v>45764</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1283,18 +1295,16 @@
         <v>45769</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -1306,15 +1316,18 @@
         <v>45771</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F28" s="1"/>
+      <c r="G28" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -1326,20 +1339,18 @@
         <v>45776</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -1351,13 +1362,13 @@
         <v>45778</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1372,16 +1383,18 @@
         <v>45783</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
@@ -2487,197 +2500,197 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H15" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H18" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/planning244_s25.xlsx
+++ b/planning244_s25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinbelton/Repositories/M244-Spring25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3EC463-2D80-6B44-8A28-3BF7670EC49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC34758A-F7F1-5042-BD17-3AE16D9C6859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="124">
   <si>
     <t>Date</t>
   </si>
@@ -161,9 +161,6 @@
     <t xml:space="preserve">Machine Learning </t>
   </si>
   <si>
-    <t>In-Class Short Essay</t>
-  </si>
-  <si>
     <t xml:space="preserve">AI, Machine Learning, and LLMs </t>
   </si>
   <si>
@@ -409,6 +406,9 @@
   </si>
   <si>
     <t>-Project Final Report</t>
+  </si>
+  <si>
+    <t>- Homework 3</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -747,10 +747,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -771,7 +771,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>10</v>
@@ -792,7 +792,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -854,7 +854,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -875,7 +875,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
@@ -898,10 +898,10 @@
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -924,10 +924,10 @@
         <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -949,7 +949,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -998,7 +998,7 @@
         <v>24</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1011,7 +1011,7 @@
         <v>45722</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="4">
         <f>B14+5</f>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="4">
         <f>B15+2</f>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="4">
         <f>B16+5</f>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="4">
         <f>B17+2</f>
@@ -1110,10 +1110,10 @@
         <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1126,7 +1126,7 @@
         <v>45743</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>28</v>
@@ -1135,10 +1135,10 @@
         <v>29</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1160,7 +1160,7 @@
         <v>33</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1174,7 +1174,7 @@
         <v>45750</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>32</v>
@@ -1183,10 +1183,10 @@
         <v>34</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1208,7 +1208,7 @@
         <v>36</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G23" s="3"/>
     </row>
@@ -1222,19 +1222,19 @@
         <v>45757</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="G24" s="3" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1256,7 +1256,7 @@
         <v>38</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -1270,7 +1270,7 @@
         <v>45764</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>37</v>
@@ -1279,10 +1279,10 @@
         <v>39</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1295,16 +1295,18 @@
         <v>45769</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -1316,17 +1318,17 @@
         <v>45771</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1339,16 +1341,16 @@
         <v>45776</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="G29" s="3"/>
     </row>
@@ -1362,13 +1364,13 @@
         <v>45778</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1383,17 +1385,17 @@
         <v>45783</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2500,197 +2502,197 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H15" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H18" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/planning244_s25.xlsx
+++ b/planning244_s25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinbelton/Repositories/M244-Spring25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC34758A-F7F1-5042-BD17-3AE16D9C6859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E93B2A-EE23-5042-A527-6F739D12FB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="123">
   <si>
     <t>Date</t>
   </si>
@@ -347,9 +347,6 @@
     <t xml:space="preserve">- ISLP 12.4, 12.5.3-12.5.4 </t>
   </si>
   <si>
-    <t>Review/Flex</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -405,10 +402,10 @@
     <t>-Data Visualization Essay</t>
   </si>
   <si>
-    <t>-Project Final Report</t>
-  </si>
-  <si>
     <t>- Homework 3</t>
+  </si>
+  <si>
+    <t>Flex</t>
   </si>
 </sst>
 </file>
@@ -692,7 +689,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -709,7 +706,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -750,7 +747,7 @@
         <v>86</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -771,7 +768,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>10</v>
@@ -901,7 +898,7 @@
         <v>89</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -924,10 +921,10 @@
         <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -998,7 +995,7 @@
         <v>24</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1011,7 +1008,7 @@
         <v>45722</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
@@ -1113,7 +1110,7 @@
         <v>93</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1138,7 +1135,7 @@
         <v>94</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1186,7 +1183,7 @@
         <v>97</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1234,7 +1231,7 @@
         <v>100</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1282,7 +1279,7 @@
         <v>102</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1295,18 +1292,16 @@
         <v>45769</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -1318,17 +1313,17 @@
         <v>45771</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1341,7 +1336,7 @@
         <v>45776</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>23</v>
@@ -1364,16 +1359,18 @@
         <v>45778</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
@@ -1385,18 +1382,16 @@
         <v>45783</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
